--- a/HicomIOS/Master/Template/Template_QuotationSummaryReport-Design.xlsx
+++ b/HicomIOS/Master/Template/Template_QuotationSummaryReport-Design.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IM-Soft\_Ourdream\Hi-Com04_1\HicomIOS\Master\Template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC55486-F39C-4B00-838E-603C6C7962B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="108" windowWidth="28692" windowHeight="12540"/>
+    <workbookView xWindow="-20617" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>HI-COM CORPORATION (THAILAND) CO., LTD.</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                                              </t>
-  </si>
-  <si>
     <t>K.Sinchai</t>
   </si>
   <si>
@@ -37,9 +50,6 @@
     <t>CUSTOMER NAME</t>
   </si>
   <si>
-    <t>PROJECT NAME</t>
-  </si>
-  <si>
     <t>SALE</t>
   </si>
   <si>
@@ -55,21 +65,6 @@
     <t>CONTACT</t>
   </si>
   <si>
-    <t>No. P/O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMOUNT </t>
-  </si>
-  <si>
-    <t>FAX</t>
-  </si>
-  <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
-    <t>REMARK</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -88,52 +83,61 @@
     <t>DESCRIPTION</t>
   </si>
   <si>
-    <t>MODEL</t>
-  </si>
-  <si>
     <t>FINAL</t>
   </si>
   <si>
-    <t>DETAIL</t>
-  </si>
-  <si>
-    <t>INVOICE</t>
-  </si>
-  <si>
     <t>TEL.</t>
   </si>
   <si>
-    <t>Site Work</t>
-  </si>
-  <si>
     <t>Person</t>
   </si>
   <si>
-    <t>ISSUE DATE</t>
-  </si>
-  <si>
     <t>SUMMARY QUATATION OF SALES</t>
+  </si>
+  <si>
+    <t>CREATE DATE</t>
+  </si>
+  <si>
+    <t>PROJECT</t>
+  </si>
+  <si>
+    <t>SUBJECT</t>
+  </si>
+  <si>
+    <t>QU</t>
+  </si>
+  <si>
+    <t>UPDATE DATE</t>
+  </si>
+  <si>
+    <t>P/O No.</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>INVOICE No.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="187" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -212,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -296,19 +300,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -325,37 +316,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -428,7 +388,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -440,26 +400,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="187" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -482,22 +429,13 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -512,7 +450,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -525,19 +463,13 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="5" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="5" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -546,132 +478,108 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="6" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="6" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="6" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="5" fillId="6" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="5" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="7" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="5" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="187" fontId="5" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="187" fontId="5" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="187" fontId="5" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="40" fontId="5" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="40" fontId="5" fillId="7" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="40" fontId="5" fillId="7" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="จุลภาค" xfId="1" builtinId="3"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="เปอร์เซ็นต์" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -692,7 +600,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -734,7 +642,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -767,9 +675,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -802,6 +727,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -977,41 +919,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AL4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="25"/>
-    <col min="2" max="2" width="16.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.109375" style="25"/>
-    <col min="6" max="6" width="18.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="58.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" style="25" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" style="25" customWidth="1"/>
-    <col min="13" max="13" width="9.88671875" style="25" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="9.109375" style="25"/>
-    <col min="20" max="20" width="11.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9.109375" style="25"/>
-    <col min="23" max="23" width="18.5546875" style="25" customWidth="1"/>
-    <col min="24" max="24" width="15.88671875" style="25" customWidth="1"/>
-    <col min="25" max="25" width="23.44140625" style="25" customWidth="1"/>
-    <col min="26" max="26" width="17.109375" style="25" customWidth="1"/>
-    <col min="27" max="27" width="9.109375" style="34"/>
-    <col min="28" max="28" width="10.44140625" style="34" bestFit="1" customWidth="1"/>
-    <col min="29" max="42" width="9.109375" style="34"/>
+    <col min="1" max="1" width="9.125" style="20"/>
+    <col min="2" max="2" width="16.875" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.125" style="20"/>
+    <col min="6" max="6" width="18.625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="20" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="20" customWidth="1"/>
+    <col min="11" max="11" width="11.125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5" style="20" customWidth="1"/>
+    <col min="13" max="13" width="9.875" style="20" customWidth="1"/>
+    <col min="14" max="14" width="10.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.375" style="20" customWidth="1"/>
+    <col min="16" max="19" width="9.125" style="20"/>
+    <col min="20" max="20" width="11.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.125" style="20"/>
+    <col min="22" max="22" width="18.5" style="20" customWidth="1"/>
+    <col min="23" max="23" width="9.125" style="29"/>
+    <col min="24" max="24" width="10.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="25" max="38" width="9.125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" s="11" customFormat="1" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1022,217 +961,192 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="I1" s="5"/>
       <c r="J1" s="3"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
-      <c r="M1" s="62" t="s">
+      <c r="M1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
       <c r="U1" s="7"/>
       <c r="V1" s="8"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="13"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="20"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="21"/>
-      <c r="AP1" s="18"/>
+      <c r="W1" s="10"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="15"/>
     </row>
-    <row r="2" spans="1:42" s="14" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
+    <row r="2" spans="1:38" s="11" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="19"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
-      <c r="M2" s="10"/>
+      <c r="M2" s="9"/>
       <c r="N2" s="6"/>
       <c r="O2" s="7"/>
-      <c r="P2" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
+      <c r="P2" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
       <c r="U2" s="7"/>
       <c r="V2" s="8"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="13"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="20"/>
-      <c r="AN2" s="6"/>
-      <c r="AO2" s="21"/>
-      <c r="AP2" s="18"/>
+      <c r="W2" s="10"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="15"/>
     </row>
-    <row r="3" spans="1:42" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="66" t="s">
+    <row r="3" spans="1:38" s="24" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55" t="s">
+      <c r="H3" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="K3" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="55" t="s">
+      <c r="L3" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="57" t="s">
+      <c r="P3" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3" s="55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" s="28" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="41"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="28" t="s">
+      <c r="N4" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="40" t="s">
+      <c r="R4" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="U3" s="42" t="s">
+      <c r="S4" s="52"/>
+      <c r="T4" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="W3" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="X3" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y3" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z3" s="48" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42" s="33" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="67"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="R4" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="S4" s="41"/>
-      <c r="T4" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="U4" s="43"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="49"/>
-      <c r="Z4" s="49"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
+  <mergeCells count="15">
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="P3:R3"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="P1:T1"/>
     <mergeCell ref="A2:F2"/>
@@ -1240,17 +1154,11 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="I3:I4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="O3:R3"/>
     <mergeCell ref="S3:S4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/HicomIOS/Master/Template/Template_QuotationSummaryReport-Design.xlsx
+++ b/HicomIOS/Master/Template/Template_QuotationSummaryReport-Design.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IM-Soft\_Ourdream\Hi-Com04_1\HicomIOS\Master\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC55486-F39C-4B00-838E-603C6C7962B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C7A327-3479-42D1-850A-522267FFE8AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20617" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -462,13 +462,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="187" fontId="5" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -481,9 +475,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="6" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="187" fontId="5" fillId="6" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -507,6 +498,29 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="40" fontId="5" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="40" fontId="5" fillId="7" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -540,15 +554,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="187" fontId="5" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -561,20 +566,28 @@
     <xf numFmtId="49" fontId="5" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="40" fontId="5" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="40" fontId="5" fillId="7" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="187" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="187" fontId="5" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="187" fontId="5" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="5" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="187" fontId="5" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="จุลภาค" xfId="1" builtinId="3"/>
@@ -923,31 +936,31 @@
   <dimension ref="A1:AL4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="20"/>
-    <col min="2" max="2" width="16.875" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.125" style="20"/>
-    <col min="6" max="6" width="18.625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5" style="20" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" style="20" customWidth="1"/>
-    <col min="11" max="11" width="11.125" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5" style="20" customWidth="1"/>
-    <col min="13" max="13" width="9.875" style="20" customWidth="1"/>
-    <col min="14" max="14" width="10.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.375" style="20" customWidth="1"/>
-    <col min="16" max="19" width="9.125" style="20"/>
-    <col min="20" max="20" width="11.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.125" style="20"/>
-    <col min="22" max="22" width="18.5" style="20" customWidth="1"/>
-    <col min="23" max="23" width="9.125" style="29"/>
-    <col min="24" max="24" width="10.5" style="29" bestFit="1" customWidth="1"/>
-    <col min="25" max="38" width="9.125" style="29"/>
+    <col min="1" max="1" width="9.125" style="19"/>
+    <col min="2" max="2" width="16.875" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.125" style="19"/>
+    <col min="6" max="6" width="18.625" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="19" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="61" customWidth="1"/>
+    <col min="11" max="11" width="11.125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5" style="61" customWidth="1"/>
+    <col min="13" max="13" width="9.875" style="19" customWidth="1"/>
+    <col min="14" max="14" width="10.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.375" style="19" customWidth="1"/>
+    <col min="16" max="19" width="9.125" style="19"/>
+    <col min="20" max="20" width="11.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.125" style="19"/>
+    <col min="22" max="22" width="18.5" style="19" customWidth="1"/>
+    <col min="23" max="23" width="9.125" style="26"/>
+    <col min="24" max="24" width="10.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="25" max="38" width="9.125" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="11" customFormat="1" ht="27.75" x14ac:dyDescent="0.2">
@@ -962,21 +975,21 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="36" t="s">
+      <c r="J1" s="54"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="37" t="s">
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
       <c r="U1" s="7"/>
       <c r="V1" s="8"/>
       <c r="W1" s="10"/>
@@ -996,30 +1009,30 @@
       <c r="AL1" s="15"/>
     </row>
     <row r="2" spans="1:38" s="11" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
       <c r="M2" s="9"/>
       <c r="N2" s="6"/>
       <c r="O2" s="7"/>
-      <c r="P2" s="39" t="s">
+      <c r="P2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
       <c r="U2" s="7"/>
       <c r="V2" s="8"/>
       <c r="W2" s="10"/>
@@ -1038,117 +1051,112 @@
       <c r="AK2" s="18"/>
       <c r="AL2" s="15"/>
     </row>
-    <row r="3" spans="1:38" s="24" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:38" s="22" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="42" t="s">
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="42" t="s">
+      <c r="J3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="K3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="N3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="34" t="s">
+      <c r="O3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="46" t="s">
+      <c r="P3" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="51" t="s">
+      <c r="Q3" s="38"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="T3" s="30" t="s">
+      <c r="T3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="U3" s="53" t="s">
+      <c r="U3" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="V3" s="55" t="s">
+      <c r="V3" s="35" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:38" s="28" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="25" t="s">
+    <row r="4" spans="1:38" s="25" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="45"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="27" t="s">
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="25" t="s">
+      <c r="N4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="35" t="s">
+      <c r="O4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="31" t="s">
+      <c r="P4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="31" t="s">
+      <c r="Q4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="32" t="s">
+      <c r="R4" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="52"/>
-      <c r="T4" s="33" t="s">
+      <c r="S4" s="53"/>
+      <c r="T4" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="U4" s="54"/>
-      <c r="V4" s="56"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:T1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="P2:T2"/>
     <mergeCell ref="A3:A4"/>
@@ -1159,6 +1167,11 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="S3:S4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
